--- a/Template.xlsx
+++ b/Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Уст. Знач:</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Binom#</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
 </sst>
 </file>
@@ -574,133 +577,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -736,28 +742,29 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -793,22 +800,23 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -36,15 +36,6 @@
     <t>Uc</t>
   </si>
   <si>
-    <t>AngleUab</t>
-  </si>
-  <si>
-    <t>AngleUbc</t>
-  </si>
-  <si>
-    <t>AngleUca</t>
-  </si>
-  <si>
     <t>Ia</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>Pc</t>
   </si>
   <si>
-    <t>Pabc</t>
-  </si>
-  <si>
     <t>Qa</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>Qc</t>
   </si>
   <si>
-    <t>Qabc</t>
-  </si>
-  <si>
     <t>Sa</t>
   </si>
   <si>
@@ -112,18 +97,6 @@
   </si>
   <si>
     <t>Sc</t>
-  </si>
-  <si>
-    <t>Sabc</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>S1</t>
   </si>
   <si>
     <t>Эталон MTE</t>
@@ -186,6 +159,33 @@
   </si>
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>AngUab</t>
+  </si>
+  <si>
+    <t>AngUbc</t>
+  </si>
+  <si>
+    <t>AngUca</t>
+  </si>
+  <si>
+    <t>AngIab</t>
+  </si>
+  <si>
+    <t>AngIbc</t>
+  </si>
+  <si>
+    <t>AngIca</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,9 +589,9 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -611,94 +611,94 @@
         <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="AH1" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,22 +746,22 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Уст. Знач:</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Binom Δ изм</t>
+  </si>
+  <si>
+    <t>Binom δ изм</t>
+  </si>
+  <si>
+    <t>Binom γ изм</t>
   </si>
 </sst>
 </file>
@@ -580,7 +589,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,21 +812,62 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -285,24 +285,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -589,7 +597,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,270 +612,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
